--- a/Analyse_Files/Data/Fertige Tabelle.xlsx
+++ b/Analyse_Files/Data/Fertige Tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tills\Bachelor-Code\Analyse_Files\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46C66AE-69AA-4351-8F93-2A34325CACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5A059-0135-4C1B-B5BF-4148ADA934EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7943" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7947" uniqueCount="624">
   <si>
     <t/>
   </si>
@@ -1803,9 +1803,6 @@
     <t>Frequency of use education</t>
   </si>
   <si>
-    <t>Use AI school and education</t>
-  </si>
-  <si>
     <t>Frequency of use everyday life</t>
   </si>
   <si>
@@ -1897,6 +1894,9 @@
   </si>
   <si>
     <t>Französisch,Religion und Kultur</t>
+  </si>
+  <si>
+    <t>Use AI school and freetime</t>
   </si>
 </sst>
 </file>
@@ -2314,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BD38D3-FB4A-4AA2-9360-4ECA02686ED4}">
   <dimension ref="A1:AN204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2436,7 +2436,7 @@
         <v>297</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>590</v>
@@ -2445,88 +2445,88 @@
         <v>591</v>
       </c>
       <c r="M1" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>619</v>
-      </c>
-      <c r="AN1" s="11" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
@@ -6663,7 +6663,7 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>2</v>
@@ -7260,7 +7260,7 @@
         <v>25</v>
       </c>
       <c r="AL40" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AM40" s="8" t="s">
         <v>193</v>
@@ -10441,7 +10441,7 @@
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>2</v>
@@ -11779,7 +11779,7 @@
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>2</v>
@@ -17635,7 +17635,7 @@
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>308</v>
@@ -18243,7 +18243,7 @@
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>334</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>311</v>
@@ -18499,7 +18499,7 @@
         <v>409</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>6</v>
@@ -22635,7 +22635,7 @@
     </row>
     <row r="167" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>311</v>
@@ -24831,7 +24831,7 @@
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>311</v>
@@ -25195,7 +25195,7 @@
     </row>
     <row r="188" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>308</v>
